--- a/DELTA_report_generator-master/DELTA_report_generator-master/WindowsApplication2/Lodge Mech full.xlsx
+++ b/DELTA_report_generator-master/DELTA_report_generator-master/WindowsApplication2/Lodge Mech full.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jbrisson\Documents\Visual Studio 2015\Projects\DELTA_report_generator-master\DELTA_report_generator-master\WindowsApplication2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet3!$A:$P</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
